--- a/app/static/excel/outattendance.xlsx
+++ b/app/static/excel/outattendance.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55A3364-CA16-4099-B747-B95E4E02A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD221024-882A-4FF9-805A-9AEC37BC3AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -45,6 +56,9 @@
     <t>18:05</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>8G</t>
   </si>
   <si>
@@ -192,153 +206,153 @@
     <t>02:56</t>
   </si>
   <si>
+    <t>17:24</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>16:11</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>21:32</t>
+  </si>
+  <si>
+    <t>07:02</t>
+  </si>
+  <si>
+    <t>15:46</t>
+  </si>
+  <si>
+    <t>02:25</t>
+  </si>
+  <si>
+    <t>21:11</t>
+  </si>
+  <si>
+    <t>23:33</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>19:07</t>
+  </si>
+  <si>
+    <t>08:29</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
     <t>18:26</t>
   </si>
   <si>
-    <t>17:24</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>16:11</t>
-  </si>
-  <si>
-    <t>18:55</t>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>02:08</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>09:59</t>
+  </si>
+  <si>
+    <t>17:34</t>
+  </si>
+  <si>
+    <t>03:25</t>
+  </si>
+  <si>
+    <t>19:34</t>
+  </si>
+  <si>
+    <t>12:53</t>
+  </si>
+  <si>
+    <t>20:54</t>
+  </si>
+  <si>
+    <t>13:51</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>21:33</t>
+  </si>
+  <si>
+    <t>00:26</t>
+  </si>
+  <si>
+    <t>06:07</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>22:16</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>08:39</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>18:46</t>
+  </si>
+  <si>
+    <t>14:54</t>
+  </si>
+  <si>
+    <t>19:54</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>00:18</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>02:41</t>
+  </si>
+  <si>
+    <t>07:34</t>
+  </si>
+  <si>
+    <t>12:54</t>
   </si>
   <si>
     <t>07:18</t>
   </si>
   <si>
-    <t>21:32</t>
-  </si>
-  <si>
-    <t>17:34</t>
-  </si>
-  <si>
-    <t>07:02</t>
-  </si>
-  <si>
-    <t>15:46</t>
-  </si>
-  <si>
-    <t>02:25</t>
-  </si>
-  <si>
-    <t>13:56</t>
-  </si>
-  <si>
-    <t>21:11</t>
-  </si>
-  <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>23:33</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>19:07</t>
-  </si>
-  <si>
-    <t>08:29</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>12:20</t>
-  </si>
-  <si>
-    <t>14:12</t>
-  </si>
-  <si>
-    <t>03:50</t>
-  </si>
-  <si>
-    <t>02:08</t>
-  </si>
-  <si>
-    <t>14:11</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>09:59</t>
-  </si>
-  <si>
-    <t>03:25</t>
-  </si>
-  <si>
-    <t>19:34</t>
-  </si>
-  <si>
-    <t>12:53</t>
-  </si>
-  <si>
-    <t>20:54</t>
-  </si>
-  <si>
-    <t>13:51</t>
-  </si>
-  <si>
-    <t>06:20</t>
-  </si>
-  <si>
-    <t>21:33</t>
-  </si>
-  <si>
-    <t>00:26</t>
-  </si>
-  <si>
-    <t>06:07</t>
-  </si>
-  <si>
-    <t>01:15</t>
-  </si>
-  <si>
-    <t>22:16</t>
-  </si>
-  <si>
-    <t>08:39</t>
-  </si>
-  <si>
-    <t>02:04</t>
-  </si>
-  <si>
-    <t>04:39</t>
-  </si>
-  <si>
-    <t>16:24</t>
-  </si>
-  <si>
-    <t>18:46</t>
-  </si>
-  <si>
-    <t>14:54</t>
-  </si>
-  <si>
-    <t>19:54</t>
-  </si>
-  <si>
-    <t>07:45</t>
-  </si>
-  <si>
-    <t>00:18</t>
-  </si>
-  <si>
-    <t>02:41</t>
-  </si>
-  <si>
-    <t>07:34</t>
-  </si>
-  <si>
-    <t>12:54</t>
-  </si>
-  <si>
     <t>02:28</t>
   </si>
   <si>
@@ -355,9 +369,6 @@
   </si>
   <si>
     <t>17:16</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -367,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -822,9 +833,9 @@
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,66 +860,66 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -916,377 +927,377 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1294,83 +1305,83 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1378,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1392,322 +1403,322 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1715,83 +1726,83 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1799,111 +1810,111 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1911,125 +1922,125 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2037,41 +2048,41 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2079,69 +2090,69 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
         <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
         <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2149,41 +2160,41 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2191,27 +2202,27 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2219,24 +2230,24 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/excel/outattendance.xlsx
+++ b/app/static/excel/outattendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD221024-882A-4FF9-805A-9AEC37BC3AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB047681-6D38-4234-9254-66A47689E016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="108">
   <si>
     <t>emp_id</t>
   </si>
@@ -74,33 +74,21 @@
     <t>00:46</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>08:28</t>
   </si>
   <si>
     <t>14:05</t>
   </si>
   <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>07:08</t>
   </si>
   <si>
     <t>18:21</t>
   </si>
   <si>
-    <t>12A</t>
-  </si>
-  <si>
     <t>17:01</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
     <t>23:44</t>
   </si>
   <si>
@@ -369,6 +357,9 @@
   </si>
   <si>
     <t>17:16</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -378,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -400,6 +391,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,11 +429,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -445,6 +472,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,13 +862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,12 +882,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -863,12 +896,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -877,12 +910,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -891,11 +924,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -905,1346 +938,1346 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
+      <c r="B13" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
+      <c r="B17" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>18</v>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>20</v>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
+      <c r="B31" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>12</v>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>18</v>
+      <c r="B33" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
+      <c r="B34" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>18</v>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>12</v>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>12</v>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>12</v>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>20</v>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>18</v>
+      <c r="B47" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>18</v>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>18</v>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>20</v>
+      <c r="B51" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>15</v>
+      <c r="B52" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>9</v>
+      <c r="B53" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>20</v>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>15</v>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>20</v>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>15</v>
+      <c r="B57" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>15</v>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>15</v>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>26</v>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>18</v>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>26</v>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>18</v>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>26</v>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>20</v>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>9</v>
+      <c r="B67" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>7</v>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>4</v>
+      <c r="B70" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>15</v>
+      <c r="B71" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>15</v>
+      <c r="B72" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>15</v>
+      <c r="B73" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>7</v>
+      <c r="B74" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>12</v>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>9</v>
+      <c r="B76" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>18</v>
+      <c r="B77" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>15</v>
+      <c r="B79" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>20</v>
+      <c r="B80" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>15</v>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>18</v>
+      <c r="B82" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>9</v>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>20</v>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>12</v>
+      <c r="B86" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
+      <c r="B87" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>12</v>
+      <c r="B88" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>20</v>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
+      <c r="B90" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
+      <c r="B91" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>15</v>
+      <c r="B92" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>18</v>
+      <c r="B93" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>12</v>
+      <c r="B94" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>26</v>
+      <c r="B96" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>15</v>
+      <c r="B97" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>4</v>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>26</v>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>12</v>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>

--- a/app/static/excel/outattendance.xlsx
+++ b/app/static/excel/outattendance.xlsx
@@ -5,18 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL\HR_Management-main - Mahaveer\app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subha\Downloads\KKL-Attendance-System\app\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55A3364-CA16-4099-B747-B95E4E02A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB047681-6D38-4234-9254-66A47689E016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="108">
   <si>
     <t>emp_id</t>
   </si>
@@ -45,6 +56,9 @@
     <t>18:05</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>8G</t>
   </si>
   <si>
@@ -60,33 +74,21 @@
     <t>00:46</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
     <t>08:28</t>
   </si>
   <si>
     <t>14:05</t>
   </si>
   <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>07:08</t>
   </si>
   <si>
     <t>18:21</t>
   </si>
   <si>
-    <t>12A</t>
-  </si>
-  <si>
     <t>17:01</t>
   </si>
   <si>
-    <t>12B</t>
-  </si>
-  <si>
     <t>23:44</t>
   </si>
   <si>
@@ -192,153 +194,153 @@
     <t>02:56</t>
   </si>
   <si>
+    <t>17:24</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>16:11</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>21:32</t>
+  </si>
+  <si>
+    <t>07:02</t>
+  </si>
+  <si>
+    <t>15:46</t>
+  </si>
+  <si>
+    <t>02:25</t>
+  </si>
+  <si>
+    <t>21:11</t>
+  </si>
+  <si>
+    <t>23:33</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>19:07</t>
+  </si>
+  <si>
+    <t>08:29</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
     <t>18:26</t>
   </si>
   <si>
-    <t>17:24</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>16:11</t>
-  </si>
-  <si>
-    <t>18:55</t>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>02:08</t>
+  </si>
+  <si>
+    <t>14:11</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>09:59</t>
+  </si>
+  <si>
+    <t>17:34</t>
+  </si>
+  <si>
+    <t>03:25</t>
+  </si>
+  <si>
+    <t>19:34</t>
+  </si>
+  <si>
+    <t>12:53</t>
+  </si>
+  <si>
+    <t>20:54</t>
+  </si>
+  <si>
+    <t>13:51</t>
+  </si>
+  <si>
+    <t>06:20</t>
+  </si>
+  <si>
+    <t>21:33</t>
+  </si>
+  <si>
+    <t>00:26</t>
+  </si>
+  <si>
+    <t>06:07</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>22:16</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>08:39</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>18:46</t>
+  </si>
+  <si>
+    <t>14:54</t>
+  </si>
+  <si>
+    <t>19:54</t>
+  </si>
+  <si>
+    <t>07:45</t>
+  </si>
+  <si>
+    <t>00:18</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>02:41</t>
+  </si>
+  <si>
+    <t>07:34</t>
+  </si>
+  <si>
+    <t>12:54</t>
   </si>
   <si>
     <t>07:18</t>
   </si>
   <si>
-    <t>21:32</t>
-  </si>
-  <si>
-    <t>17:34</t>
-  </si>
-  <si>
-    <t>07:02</t>
-  </si>
-  <si>
-    <t>15:46</t>
-  </si>
-  <si>
-    <t>02:25</t>
-  </si>
-  <si>
-    <t>13:56</t>
-  </si>
-  <si>
-    <t>21:11</t>
-  </si>
-  <si>
-    <t>08:04</t>
-  </si>
-  <si>
-    <t>23:33</t>
-  </si>
-  <si>
-    <t>06:28</t>
-  </si>
-  <si>
-    <t>19:07</t>
-  </si>
-  <si>
-    <t>08:29</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>12:20</t>
-  </si>
-  <si>
-    <t>14:12</t>
-  </si>
-  <si>
-    <t>03:50</t>
-  </si>
-  <si>
-    <t>02:08</t>
-  </si>
-  <si>
-    <t>14:11</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>09:59</t>
-  </si>
-  <si>
-    <t>03:25</t>
-  </si>
-  <si>
-    <t>19:34</t>
-  </si>
-  <si>
-    <t>12:53</t>
-  </si>
-  <si>
-    <t>20:54</t>
-  </si>
-  <si>
-    <t>13:51</t>
-  </si>
-  <si>
-    <t>06:20</t>
-  </si>
-  <si>
-    <t>21:33</t>
-  </si>
-  <si>
-    <t>00:26</t>
-  </si>
-  <si>
-    <t>06:07</t>
-  </si>
-  <si>
-    <t>01:15</t>
-  </si>
-  <si>
-    <t>22:16</t>
-  </si>
-  <si>
-    <t>08:39</t>
-  </si>
-  <si>
-    <t>02:04</t>
-  </si>
-  <si>
-    <t>04:39</t>
-  </si>
-  <si>
-    <t>16:24</t>
-  </si>
-  <si>
-    <t>18:46</t>
-  </si>
-  <si>
-    <t>14:54</t>
-  </si>
-  <si>
-    <t>19:54</t>
-  </si>
-  <si>
-    <t>07:45</t>
-  </si>
-  <si>
-    <t>00:18</t>
-  </si>
-  <si>
-    <t>02:41</t>
-  </si>
-  <si>
-    <t>07:34</t>
-  </si>
-  <si>
-    <t>12:54</t>
-  </si>
-  <si>
     <t>02:28</t>
   </si>
   <si>
@@ -357,7 +359,7 @@
     <t>17:16</t>
   </si>
   <si>
-    <t>-</t>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -367,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -389,6 +391,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -421,11 +429,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -434,6 +472,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,700 +886,700 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
+      <c r="B17" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>14</v>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>17</v>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>19</v>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="B31" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>17</v>
+      <c r="B33" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>4</v>
+      <c r="B34" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>17</v>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>11</v>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>11</v>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>4</v>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>17</v>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>19</v>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>17</v>
+      <c r="B47" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>17</v>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>14</v>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>17</v>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>19</v>
+      <c r="B51" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -1543,700 +1587,700 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
+      <c r="B52" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
+      <c r="B53" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>19</v>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>19</v>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>14</v>
+      <c r="B57" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
+      <c r="B58" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>14</v>
+      <c r="B59" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>25</v>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>17</v>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>25</v>
+      <c r="B62" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>17</v>
+      <c r="B63" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>4</v>
+      <c r="B64" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>25</v>
+      <c r="B65" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>19</v>
+      <c r="B66" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
+      <c r="B67" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
+      <c r="B68" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>4</v>
+      <c r="B70" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>14</v>
+      <c r="B71" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>14</v>
+      <c r="B72" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>14</v>
+      <c r="B73" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
+      <c r="B74" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>11</v>
+      <c r="B75" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>8</v>
+      <c r="B76" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>17</v>
+      <c r="B77" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>4</v>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>14</v>
+      <c r="B79" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>19</v>
+      <c r="B80" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>14</v>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>17</v>
+      <c r="B82" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>8</v>
+      <c r="B83" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
+      <c r="B84" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>19</v>
+      <c r="B85" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>11</v>
+      <c r="B86" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
+      <c r="B87" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>11</v>
+      <c r="B88" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>19</v>
+      <c r="B89" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
+      <c r="B90" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>14</v>
+      <c r="B92" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>17</v>
+      <c r="B93" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>11</v>
+      <c r="B94" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>25</v>
+      <c r="B96" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>14</v>
+      <c r="B97" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>4</v>
+      <c r="B98" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>25</v>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>11</v>
+      <c r="B101" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
